--- a/Bauteilliste.xlsx
+++ b/Bauteilliste.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonvehreschild/Studium/5_Semester_WS25/PRJ/Hydroponic_Tower_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD93A60-338E-F842-913B-E7298283D3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF04347F-E509-C84C-9D05-DB7221ACE697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2760" windowWidth="27840" windowHeight="16740" xr2:uid="{66DF1728-BF38-7C4B-9350-668DBF3A4C2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{66DF1728-BF38-7C4B-9350-668DBF3A4C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bauliste" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,185 +36,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
-  <si>
-    <t>ja</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>https://www.reichelt.de/de/de/shop/produkt/netzteil_36_w_12_v_3_a_dc-stecker_5_5x2_1_mm-387959</t>
+  </si>
+  <si>
+    <t>Netzteil</t>
+  </si>
+  <si>
+    <t>https://www.az-delivery.de/products/hd44780-2004-lcd-display-bundle-4x20-zeichen-mit-i2c-schnittstelle-gruen?_pos=11&amp;_sid=d3d8caaf3&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>12$</t>
+  </si>
+  <si>
+    <t>https://a.co/d/cCIFuJb</t>
+  </si>
+  <si>
+    <t>https://www.growland.net/Grodan-Steinwollstartbloecke-4x4cm-15-Stueck?_gl</t>
+  </si>
+  <si>
+    <t>Trägermaterial</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/de/de/shop/produkt/entwicklerboards_-_temperatur-_feuchtigkeitssensor_dht22-266104</t>
+  </si>
+  <si>
+    <t>Umgebungssensor (Temp &amp; Humi)</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/de/de/shop/produkt/levelsensor_mit_schwimmer_waagerechter_einbau-27691</t>
+  </si>
+  <si>
+    <t>Füllstandssensor (Wasser)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Converter-APKLVSR-Spannungsregler-Einstellbares-Abwärtsmodul/dp/B0FPG1GFDJ/ref=sr_1_11_sspa?__mk_de_DE=ÅMÅŽÕÑ&amp;crid=1RDDHVNBERTEB&amp;dib=eyJ2IjoiMSJ9.PmyqxjcX0Suat7MYbz3_t3amz7E9GsXyOlnh3nbDr4U6cfwByvA-2cTeuELAxuYDn7Dm5o33GeqL5mwicL7-tYV2CM9VMPzcTdUhA555qzw_X_yyQA0GVuXXRe7Zm7MTb89iD4rkai1QQ28O54X97R8NLT5unMOsk3W8PY7TCVAFwutPRUfT0O5bF4VQdUdxqK0lTQE0UppyNK8e7TYeo9UcR8ePTYVZMFeVZs2xeN_sd3qxoMWm_8HbRV2fKb4CE5Dt3TAm8pwbpUE6QxoCwAVPf558NKkJBjH1SFyCt_I.PY8sbpbXvhG8JW9j_pBmluPuIFe1CEPk0K_JylBrLDg&amp;dib_tag=se&amp;keywords=dc+dc+wandler+12v+5v&amp;qid=1764669398&amp;sprefix=dc+dc+wandler+12v+5v%2Caps%2C71&amp;sr=8-11-spons&amp;aref=ZNgVBodoic&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>DC-DC-Wandler</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B08JCNHF1H</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/ARCELI-STÜCKE-KY-019-Relaismodul-arduino/dp/B07BVXT1ZK</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/hozelock-100-101-147-10-mm-meterware-glasklar-pvc-schlauch-3394330.html</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>Schlauch (Wasser)</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/comet-1300-01-00-niedervolt-tauchpumpe-600-l-h-5-5-m-1435461.html</t>
+  </si>
+  <si>
+    <t>Pumpe (Wasser)</t>
+  </si>
+  <si>
+    <t>https://www.pollin.de/p/joy-it-arduino-nano-v3p-precision-ard-nanov3p-arduino-kompatibel-mit-original-chip-811754</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/de/de/shop/produkt/arduino_nano_v3_atmega_328_mini-usb-142943</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Preis alternativ</t>
+  </si>
+  <si>
+    <t>Herstellerlink alternativ preiswerter</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Herstellerlink</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Bauteilliste</t>
   </si>
   <si>
     <t>Platine Blank</t>
-  </si>
-  <si>
-    <t>PETG</t>
-  </si>
-  <si>
-    <t>Kabel</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optional (i.R. vorhanden)  </t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/de/de/shop/produkt/netzteil_36_w_12_v_3_a_dc-stecker_5_5x2_1_mm-387959</t>
-  </si>
-  <si>
-    <t>Netzteil</t>
-  </si>
-  <si>
-    <t>nicht klar</t>
-  </si>
-  <si>
-    <t>Licht (ggf.)</t>
-  </si>
-  <si>
-    <t>https://www.az-delivery.de/products/hd44780-2004-lcd-display-bundle-4x20-zeichen-mit-i2c-schnittstelle-gruen?_pos=11&amp;_sid=d3d8caaf3&amp;_ss=r</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Tank / Eimer (Nährstoff)</t>
-  </si>
-  <si>
-    <t>Schlauch (Nährstoff)</t>
-  </si>
-  <si>
-    <t>Pumpe (Nährstoff)</t>
-  </si>
-  <si>
-    <t>12$</t>
-  </si>
-  <si>
-    <t>https://a.co/d/cCIFuJb</t>
-  </si>
-  <si>
-    <t>https://www.growland.net/Grodan-Steinwollstartbloecke-4x4cm-15-Stueck?_gl</t>
-  </si>
-  <si>
-    <t>Trägermaterial</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/de/de/shop/produkt/entwicklerboards_-_temperatur-_feuchtigkeitssensor_dht22-266104</t>
-  </si>
-  <si>
-    <t>Umgebungssensor (Temp &amp; Humi)</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/de/de/shop/produkt/levelsensor_mit_schwimmer_waagerechter_einbau-27691</t>
-  </si>
-  <si>
-    <t>Füllstandssensor (Wasser)</t>
-  </si>
-  <si>
-    <t>gekauft Baumarkt</t>
-  </si>
-  <si>
-    <t>Tank / Eimer</t>
-  </si>
-  <si>
-    <t>Dichtband</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/Converter-APKLVSR-Spannungsregler-Einstellbares-Abwärtsmodul/dp/B0FPG1GFDJ/ref=sr_1_11_sspa?__mk_de_DE=ÅMÅŽÕÑ&amp;crid=1RDDHVNBERTEB&amp;dib=eyJ2IjoiMSJ9.PmyqxjcX0Suat7MYbz3_t3amz7E9GsXyOlnh3nbDr4U6cfwByvA-2cTeuELAxuYDn7Dm5o33GeqL5mwicL7-tYV2CM9VMPzcTdUhA555qzw_X_yyQA0GVuXXRe7Zm7MTb89iD4rkai1QQ28O54X97R8NLT5unMOsk3W8PY7TCVAFwutPRUfT0O5bF4VQdUdxqK0lTQE0UppyNK8e7TYeo9UcR8ePTYVZMFeVZs2xeN_sd3qxoMWm_8HbRV2fKb4CE5Dt3TAm8pwbpUE6QxoCwAVPf558NKkJBjH1SFyCt_I.PY8sbpbXvhG8JW9j_pBmluPuIFe1CEPk0K_JylBrLDg&amp;dib_tag=se&amp;keywords=dc+dc+wandler+12v+5v&amp;qid=1764669398&amp;sprefix=dc+dc+wandler+12v+5v%2Caps%2C71&amp;sr=8-11-spons&amp;aref=ZNgVBodoic&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;psc=1</t>
-  </si>
-  <si>
-    <t>DC-DC-Wandler</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/dp/B08JCNHF1H</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>https://www.amazon.de/ARCELI-STÜCKE-KY-019-Relaismodul-arduino/dp/B07BVXT1ZK</t>
-  </si>
-  <si>
-    <t>Relais</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/hozelock-100-101-147-10-mm-meterware-glasklar-pvc-schlauch-3394330.html</t>
-  </si>
-  <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>Schlauch (Wasser)</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/comet-1300-01-00-niedervolt-tauchpumpe-600-l-h-5-5-m-1435461.html</t>
-  </si>
-  <si>
-    <t>Pumpe (Wasser)</t>
-  </si>
-  <si>
-    <t>https://www.pollin.de/p/joy-it-arduino-nano-v3p-precision-ard-nanov3p-arduino-kompatibel-mit-original-chip-811754</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/de/de/shop/produkt/arduino_nano_v3_atmega_328_mini-usb-142943</t>
-  </si>
-  <si>
-    <t>Microcontroller</t>
-  </si>
-  <si>
-    <t>schon bestellt</t>
-  </si>
-  <si>
-    <t>Preis alternativ</t>
-  </si>
-  <si>
-    <t>Herstellerlink alternativ preiswerter</t>
-  </si>
-  <si>
-    <t>Preis</t>
-  </si>
-  <si>
-    <t>Herstellerlink</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Bauteilliste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Textkörper)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="6" tint="0.39997558519241921"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,18 +168,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -277,23 +204,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -313,16 +234,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EEEACA2-6EA3-3E46-93AA-1DA0353604D6}" name="Tabelle1" displayName="Tabelle1" ref="A2:G24" totalsRowShown="0">
-  <autoFilter ref="A2:G24" xr:uid="{D1CDDE92-E3FF-1A4D-AF69-BF9EE5C1476D}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EEEACA2-6EA3-3E46-93AA-1DA0353604D6}" name="Tabelle1" displayName="Tabelle1" ref="A2:F14" totalsRowShown="0">
+  <autoFilter ref="A2:F14" xr:uid="{D1CDDE92-E3FF-1A4D-AF69-BF9EE5C1476D}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{49191B55-6AEB-EA42-A66F-CA522DBE67DD}" name="Material"/>
     <tableColumn id="2" xr3:uid="{3F91E51B-0C5B-7F4B-BCDB-58C0F1E9B98D}" name="Anzahl"/>
     <tableColumn id="4" xr3:uid="{39B24F31-7B15-1940-B9FB-68E9A20281E9}" name="Herstellerlink"/>
     <tableColumn id="7" xr3:uid="{6A1B8B89-A283-BC41-BCBC-B99CBF802CFE}" name="Preis"/>
     <tableColumn id="5" xr3:uid="{1C27D038-E5C4-5043-ACB2-23F5D6212DB2}" name="Herstellerlink alternativ preiswerter"/>
     <tableColumn id="8" xr3:uid="{B064ACEA-9EC3-C34C-BD54-673DD6596546}" name="Preis alternativ"/>
-    <tableColumn id="6" xr3:uid="{67D9AA7F-DD1B-A145-A0EC-899FAE562B03}" name="schon bestellt"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -645,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6583AA-19A0-5D43-8CB5-559F640BAA86}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="135" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,344 +579,205 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D3">
         <v>19.7</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F3">
         <v>10.9</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D4">
         <v>14.99</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D5">
         <f>1.49*3</f>
         <v>4.47</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
         <v>5.99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F7">
         <v>9.99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10.99</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D11">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>7.99</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
         <f>3.95*3</f>
         <v>11.850000000000001</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>8.99</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>24.7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="G24" t="s">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1005,11 +786,11 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{726F9B98-C2E5-254F-9A10-47E58ADFA401}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{91E0F171-C267-9B42-ADAC-1EB4E656DE28}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{5EC605A6-EF05-B14E-BFE2-204F6886F707}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{1C10171D-3E61-5B4D-A13B-515BF9C57108}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{FAEB1AE1-5197-534E-BDF6-50C35E99A306}"/>
-    <hyperlink ref="E13" r:id="rId7" xr:uid="{2671E9F8-CA43-C342-9F02-DF0431E5CFBB}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{A146D985-E028-CD43-AA5F-D2E1827CF622}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{96BE69C9-798F-5442-ADAF-94A1F33892DA}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{1C10171D-3E61-5B4D-A13B-515BF9C57108}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{FAEB1AE1-5197-534E-BDF6-50C35E99A306}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{2671E9F8-CA43-C342-9F02-DF0431E5CFBB}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{A146D985-E028-CD43-AA5F-D2E1827CF622}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{96BE69C9-798F-5442-ADAF-94A1F33892DA}"/>
     <hyperlink ref="E6" r:id="rId10" xr:uid="{C1E6DE53-B8DB-E44B-97F3-037FAD24A9AE}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{CF64C197-4B8F-8244-9854-CB9D87164345}"/>
   </hyperlinks>

--- a/Bauteilliste.xlsx
+++ b/Bauteilliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonvehreschild/Studium/5_Semester_WS25/PRJ/Hydroponic_Tower_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF04347F-E509-C84C-9D05-DB7221ACE697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9EE0D-23E0-144D-8A19-79A87A713F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{66DF1728-BF38-7C4B-9350-668DBF3A4C2B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19720" xr2:uid="{66DF1728-BF38-7C4B-9350-668DBF3A4C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bauliste" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>https://www.reichelt.de/de/de/shop/produkt/netzteil_36_w_12_v_3_a_dc-stecker_5_5x2_1_mm-387959</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Platine Blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +696,9 @@
       <c r="C8" s="3"/>
       <c r="E8" t="s">
         <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/Bauteilliste.xlsx
+++ b/Bauteilliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonvehreschild/Studium/5_Semester_WS25/PRJ/Hydroponic_Tower_Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9EE0D-23E0-144D-8A19-79A87A713F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EED176-B9B7-664E-8302-80FE6210CC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19720" xr2:uid="{66DF1728-BF38-7C4B-9350-668DBF3A4C2B}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19720" xr2:uid="{66DF1728-BF38-7C4B-9350-668DBF3A4C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bauliste" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>https://www.reichelt.de/de/de/shop/produkt/netzteil_36_w_12_v_3_a_dc-stecker_5_5x2_1_mm-387959</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RTC-Module</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B01M2B7HQB?ref=ppx_pop_mob_ap_share&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -237,8 +243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EEEACA2-6EA3-3E46-93AA-1DA0353604D6}" name="Tabelle1" displayName="Tabelle1" ref="A2:F14" totalsRowShown="0">
-  <autoFilter ref="A2:F14" xr:uid="{D1CDDE92-E3FF-1A4D-AF69-BF9EE5C1476D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EEEACA2-6EA3-3E46-93AA-1DA0353604D6}" name="Tabelle1" displayName="Tabelle1" ref="A2:F15" totalsRowShown="0">
+  <autoFilter ref="A2:F15" xr:uid="{D1CDDE92-E3FF-1A4D-AF69-BF9EE5C1476D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{49191B55-6AEB-EA42-A66F-CA522DBE67DD}" name="Material"/>
     <tableColumn id="2" xr3:uid="{3F91E51B-0C5B-7F4B-BCDB-58C0F1E9B98D}" name="Anzahl"/>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6583AA-19A0-5D43-8CB5-559F640BAA86}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,115 +680,129 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>9.99</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>9.99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>9.8000000000000007</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>7.99</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f>3.95*3</f>
         <v>11.850000000000001</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>8.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>24.7</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -792,17 +812,18 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{726F9B98-C2E5-254F-9A10-47E58ADFA401}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{91E0F171-C267-9B42-ADAC-1EB4E656DE28}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{5EC605A6-EF05-B14E-BFE2-204F6886F707}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{1C10171D-3E61-5B4D-A13B-515BF9C57108}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{FAEB1AE1-5197-534E-BDF6-50C35E99A306}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{2671E9F8-CA43-C342-9F02-DF0431E5CFBB}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{A146D985-E028-CD43-AA5F-D2E1827CF622}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{96BE69C9-798F-5442-ADAF-94A1F33892DA}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{1C10171D-3E61-5B4D-A13B-515BF9C57108}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{FAEB1AE1-5197-534E-BDF6-50C35E99A306}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{2671E9F8-CA43-C342-9F02-DF0431E5CFBB}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{A146D985-E028-CD43-AA5F-D2E1827CF622}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{96BE69C9-798F-5442-ADAF-94A1F33892DA}"/>
     <hyperlink ref="E6" r:id="rId10" xr:uid="{C1E6DE53-B8DB-E44B-97F3-037FAD24A9AE}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{CF64C197-4B8F-8244-9854-CB9D87164345}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{CF64C197-4B8F-8244-9854-CB9D87164345}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{9C4AB7A8-DE27-9A46-8A7F-5F73AA4125D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>